--- a/pred_ohlcv/54_21/2020-01-16 GNT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 GNT ohlcv.xlsx
@@ -600,7 +600,7 @@
         <v>26729.16189999999</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>24634.08979999999</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -860,7 +860,7 @@
         <v>85242.86189999999</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>114250.4478</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>113533.7516</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>118990.323</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>118990.323</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>119090.323</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>119090.323</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>128536.5712</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>101651.0876</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>542561.5222185798</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>542626.4184185797</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>540626.4184185797</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>540626.4184185797</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>519573.0669185797</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>519820.8035185797</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>518830.8035185797</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>520474.2965185798</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>520341.4960185798</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>520341.4960185798</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>520341.4960185798</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>522341.4960185798</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>532341.4960185797</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>532301.4960185797</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>543744.3055185797</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>543744.3055185797</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>543744.3055185797</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>543744.3055185797</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-16 GNT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 GNT ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>34347.2066</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>33505.69089999999</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>33505.69089999999</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>32505.69089999999</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>26979.16189999999</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>26979.16189999999</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -860,7 +860,7 @@
         <v>85242.86189999999</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>114250.4478</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>113533.7516</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>118990.323</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>118990.323</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>119090.323</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>119090.323</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>128536.5712</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>101651.0876</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>504051.9648757226</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>504051.9648757226</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>504051.9648757226</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>504051.9648757226</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>517788.5901185797</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>520034.7306185797</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>518980.1221185797</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>519476.0217185798</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>532690.8255185798</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>542561.5222185798</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>542561.5222185798</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>542626.4184185797</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>540626.4184185797</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>540626.4184185797</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>519573.0669185797</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>519820.8035185797</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>518830.8035185797</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>520474.2965185798</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>520341.4960185798</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>520341.4960185798</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>520341.4960185798</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>522341.4960185798</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>532341.4960185797</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>532301.4960185797</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>543744.3055185797</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>543744.3055185797</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>543744.3055185797</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>543744.3055185797</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
